--- a/БД_семинар 2.xlsx
+++ b/БД_семинар 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GeekBrains\ЗНАКОМСТВО С БАЗАМИ ДАННЫХ\Семинары\2\DZ-Seminar2_KVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A7811-E7EC-4977-9B27-E50C7EC347D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B529C-B718-4639-B679-15F3C652F6F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -472,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1197,11 +1197,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1715,6 +1730,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1722,8 +1739,15 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2379,36 +2403,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="141" t="s">
@@ -3304,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D079C-C50E-4347-8FAD-186FD3B57B2E}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3408,7 @@
       <c r="I5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="244">
+      <c r="K5" s="241">
         <v>1</v>
       </c>
       <c r="L5" s="14" t="s">
@@ -3416,7 +3440,7 @@
       <c r="I6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="245">
+      <c r="K6" s="242">
         <v>1</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -3448,7 +3472,7 @@
       <c r="I7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="244">
+      <c r="K7" s="241">
         <v>1</v>
       </c>
       <c r="L7" s="14" t="s">
@@ -3724,7 +3748,7 @@
       <c r="C23" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="244">
+      <c r="D23" s="241">
         <v>1</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3751,7 +3775,7 @@
       <c r="C24" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="245">
+      <c r="D24" s="242">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -3778,7 +3802,7 @@
       <c r="C25" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="244">
+      <c r="D25" s="241">
         <v>1</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -3896,7 +3920,15 @@
         <v>46</v>
       </c>
       <c r="G29" s="214"/>
-      <c r="H29" s="47"/>
+      <c r="H29" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="229" t="s">
@@ -3915,7 +3947,15 @@
         <v>46</v>
       </c>
       <c r="G30" s="215"/>
-      <c r="H30" s="44"/>
+      <c r="H30" s="248" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="229" t="s">
@@ -3934,7 +3974,15 @@
         <v>48</v>
       </c>
       <c r="G31" s="214"/>
-      <c r="H31" s="47"/>
+      <c r="H31" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="229" t="s">
@@ -3953,7 +4001,15 @@
         <v>44</v>
       </c>
       <c r="G32" s="215"/>
-      <c r="H32" s="44"/>
+      <c r="H32" s="248" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="229" t="s">
@@ -3972,7 +4028,15 @@
         <v>48</v>
       </c>
       <c r="G33" s="214"/>
-      <c r="H33" s="47"/>
+      <c r="H33" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="229" t="s">
@@ -3991,43 +4055,53 @@
         <v>44</v>
       </c>
       <c r="G34" s="215"/>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H34" s="248" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="246"/>
+    </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="243" t="s">
+      <c r="C36" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="242"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="242"/>
-      <c r="H36" s="242"/>
-      <c r="I36" s="242"/>
-      <c r="J36" s="242"/>
-      <c r="K36" s="242"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244"/>
+      <c r="J36" s="244"/>
+      <c r="K36" s="244"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="242"/>
-      <c r="D37" s="242"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="242"/>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="242"/>
-      <c r="J37" s="242"/>
-      <c r="K37" s="242"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
+      <c r="J37" s="244"/>
+      <c r="K37" s="244"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="242"/>
-      <c r="D38" s="242"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
-      <c r="K38" s="242"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="244"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
+      <c r="J38" s="244"/>
+      <c r="K38" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4042,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4553,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390798A3-712E-453A-BF21-7505F0E74840}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -5019,8 +5093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D46AFC-5541-49B0-BE79-21D605A95174}">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5788,36 +5862,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="241" t="s">
+      <c r="G2" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="241" t="s">
+      <c r="K2" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
     </row>
     <row r="4" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -6212,36 +6286,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="73" t="s">
@@ -6909,36 +6983,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="141" t="s">
@@ -7641,36 +7715,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="141" t="s">
